--- a/game_data_final/Spandau 04 vs AN Brescia.xlsx
+++ b/game_data_final/Spandau 04 vs AN Brescia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
   <si>
     <t>Number of Passes</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Kickout Position</t>
+  </si>
+  <si>
+    <t>End 3-3</t>
   </si>
   <si>
     <t>5m</t>
@@ -257,9 +260,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
-  </numFmts>
   <fonts count="6">
     <font>
       <sz val="10.0"/>
@@ -270,14 +270,14 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <b/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
-    </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -303,29 +303,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="20" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -432,14 +429,14 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
-        <v>43527.0</v>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -447,7 +444,7 @@
         <v>3.0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5">
         <v>5.0</v>
@@ -465,7 +462,7 @@
         <v>0.0</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="5">
         <v>0.0</v>
@@ -474,10 +471,10 @@
         <v>0.0</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="5">
         <v>11.0</v>
@@ -488,14 +485,14 @@
       <c r="O2" s="5">
         <v>1.0</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>30</v>
+      <c r="P2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="Q2" s="5">
         <v>0.0</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5">
         <v>0.0</v>
@@ -503,10 +500,10 @@
       <c r="T2" s="5">
         <v>1.0</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <v>0.19722222222222222</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>0.1909722222222222</v>
       </c>
       <c r="W2" s="5">
@@ -521,8 +518,8 @@
       <c r="Z2" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA2" s="8" t="s">
-        <v>32</v>
+      <c r="AA2" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -530,7 +527,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="5">
         <v>8.0</v>
@@ -548,7 +545,7 @@
         <v>0.0</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I3" s="5">
         <v>0.0</v>
@@ -557,10 +554,10 @@
         <v>0.0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5">
         <v>6.0</v>
@@ -572,13 +569,13 @@
         <v>1.0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" s="5">
         <v>0.0</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" s="5">
         <v>0.0</v>
@@ -586,10 +583,10 @@
       <c r="T3" s="5">
         <v>1.0</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>0.1909722222222222</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="6">
         <v>0.18611111111111112</v>
       </c>
       <c r="W3" s="5">
@@ -604,8 +601,8 @@
       <c r="Z3" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>35</v>
+      <c r="AA3" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +610,16 @@
         <v>12.0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5">
         <v>0.0</v>
@@ -631,7 +628,7 @@
         <v>0.0</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="5">
         <v>0.0</v>
@@ -640,28 +637,28 @@
         <v>0.0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="5">
         <v>0.0</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S4" s="5">
         <v>1.0</v>
@@ -669,10 +666,10 @@
       <c r="T4" s="5">
         <v>1.0</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <v>0.15208333333333332</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="6">
         <v>0.13125</v>
       </c>
       <c r="W4" s="5">
@@ -687,8 +684,8 @@
       <c r="Z4" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>38</v>
+      <c r="AA4" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -696,7 +693,7 @@
         <v>8.0</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>9.0</v>
@@ -714,7 +711,7 @@
         <v>0.0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="5">
         <v>0.0</v>
@@ -723,10 +720,10 @@
         <v>0.0</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="5">
         <v>5.0</v>
@@ -738,13 +735,13 @@
         <v>1.0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="5">
         <v>0.0</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S5" s="5">
         <v>0.0</v>
@@ -752,10 +749,10 @@
       <c r="T5" s="5">
         <v>1.0</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>0.12986111111111112</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>0.11388888888888889</v>
       </c>
       <c r="W5" s="5">
@@ -770,8 +767,8 @@
       <c r="Z5" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA5" s="8" t="s">
-        <v>45</v>
+      <c r="AA5" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -779,7 +776,7 @@
         <v>10.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>9.0</v>
@@ -797,7 +794,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="5">
         <v>1.0</v>
@@ -806,10 +803,10 @@
         <v>0.0</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M6" s="5">
         <v>8.0</v>
@@ -821,13 +818,13 @@
         <v>0.0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="5">
         <v>1.0</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S6" s="5">
         <v>0.0</v>
@@ -835,10 +832,10 @@
       <c r="T6" s="5">
         <v>1.0</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>0.08263888888888889</v>
       </c>
-      <c r="V6" s="7">
+      <c r="V6" s="6">
         <v>0.06875</v>
       </c>
       <c r="W6" s="5">
@@ -853,8 +850,8 @@
       <c r="Z6" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA6" s="8" t="s">
-        <v>50</v>
+      <c r="AA6" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -862,7 +859,7 @@
         <v>9.0</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5">
         <v>6.0</v>
@@ -880,7 +877,7 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="5">
         <v>0.0</v>
@@ -889,10 +886,10 @@
         <v>0.0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="5">
         <v>9.0</v>
@@ -904,13 +901,13 @@
         <v>1.0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="5">
         <v>0.0</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S7" s="5">
         <v>0.0</v>
@@ -918,10 +915,10 @@
       <c r="T7" s="5">
         <v>1.0</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>0.052083333333333336</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="6">
         <v>0.03819444444444445</v>
       </c>
       <c r="W7" s="5">
@@ -936,8 +933,8 @@
       <c r="Z7" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA7" s="8" t="s">
-        <v>52</v>
+      <c r="AA7" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -945,7 +942,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5">
         <v>2.0</v>
@@ -963,7 +960,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="5">
         <v>0.0</v>
@@ -972,10 +969,10 @@
         <v>0.0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="5">
         <v>8.0</v>
@@ -987,13 +984,13 @@
         <v>0.0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="5">
         <v>0.0</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S8" s="5">
         <v>0.0</v>
@@ -1001,10 +998,10 @@
       <c r="T8" s="5">
         <v>2.0</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>0.21180555555555555</v>
       </c>
-      <c r="V8" s="7">
+      <c r="V8" s="6">
         <v>0.19444444444444445</v>
       </c>
       <c r="W8" s="5">
@@ -1019,8 +1016,8 @@
       <c r="Z8" s="5">
         <v>1.0</v>
       </c>
-      <c r="AA8" s="8" t="s">
-        <v>55</v>
+      <c r="AA8" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -1028,7 +1025,7 @@
         <v>9.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="5">
         <v>6.0</v>
@@ -1046,7 +1043,7 @@
         <v>0.0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I9" s="5">
         <v>0.0</v>
@@ -1055,10 +1052,10 @@
         <v>0.0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M9" s="5">
         <v>11.0</v>
@@ -1070,13 +1067,13 @@
         <v>0.0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="5">
         <v>0.0</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S9" s="5">
         <v>0.0</v>
@@ -1084,10 +1081,10 @@
       <c r="T9" s="5">
         <v>2.0</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>0.18263888888888888</v>
       </c>
-      <c r="V9" s="7">
+      <c r="V9" s="6">
         <v>0.16944444444444445</v>
       </c>
       <c r="W9" s="5">
@@ -1102,8 +1099,8 @@
       <c r="Z9" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA9" s="8" t="s">
-        <v>58</v>
+      <c r="AA9" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
@@ -1111,7 +1108,7 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5">
         <v>10.0</v>
@@ -1129,7 +1126,7 @@
         <v>1.0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5">
         <v>1.0</v>
@@ -1138,10 +1135,10 @@
         <v>0.0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="5">
         <v>11.0</v>
@@ -1153,13 +1150,13 @@
         <v>0.0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="5">
         <v>0.0</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S10" s="5">
         <v>0.0</v>
@@ -1167,10 +1164,10 @@
       <c r="T10" s="5">
         <v>2.0</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="V10" s="7">
+      <c r="V10" s="6">
         <v>0.15902777777777777</v>
       </c>
       <c r="W10" s="5">
@@ -1185,8 +1182,8 @@
       <c r="Z10" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA10" s="8" t="s">
-        <v>61</v>
+      <c r="AA10" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11">
@@ -1194,7 +1191,7 @@
         <v>9.0</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C11" s="5">
         <v>8.0</v>
@@ -1212,7 +1209,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="5">
         <v>0.0</v>
@@ -1221,10 +1218,10 @@
         <v>0.0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" s="5">
         <v>2.0</v>
@@ -1236,13 +1233,13 @@
         <v>1.0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="5">
         <v>0.0</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S11" s="5">
         <v>0.0</v>
@@ -1250,10 +1247,10 @@
       <c r="T11" s="5">
         <v>2.0</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>0.14097222222222222</v>
       </c>
-      <c r="V11" s="7">
+      <c r="V11" s="6">
         <v>0.1326388888888889</v>
       </c>
       <c r="W11" s="5">
@@ -1268,8 +1265,8 @@
       <c r="Z11" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA11" s="8" t="s">
-        <v>63</v>
+      <c r="AA11" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1277,7 +1274,7 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5">
         <v>12.0</v>
@@ -1295,7 +1292,7 @@
         <v>0.0</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="5">
         <v>0.0</v>
@@ -1304,10 +1301,10 @@
         <v>0.0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M12" s="5">
         <v>11.0</v>
@@ -1319,13 +1316,13 @@
         <v>0.0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="5">
         <v>0.0</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S12" s="5">
         <v>0.0</v>
@@ -1333,10 +1330,10 @@
       <c r="T12" s="5">
         <v>2.0</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>0.11944444444444445</v>
       </c>
-      <c r="V12" s="7">
+      <c r="V12" s="6">
         <v>0.10625</v>
       </c>
       <c r="W12" s="5">
@@ -1351,8 +1348,8 @@
       <c r="Z12" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA12" s="8" t="s">
-        <v>66</v>
+      <c r="AA12" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -1360,7 +1357,7 @@
         <v>4.0</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C13" s="5">
         <v>6.0</v>
@@ -1378,7 +1375,7 @@
         <v>0.0</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I13" s="5">
         <v>0.0</v>
@@ -1387,10 +1384,10 @@
         <v>0.0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="5">
         <v>11.0</v>
@@ -1402,13 +1399,13 @@
         <v>0.0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="5">
         <v>0.0</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S13" s="5">
         <v>0.0</v>
@@ -1416,10 +1413,10 @@
       <c r="T13" s="5">
         <v>3.0</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>0.23541666666666666</v>
       </c>
-      <c r="V13" s="7">
+      <c r="V13" s="6">
         <v>0.22569444444444445</v>
       </c>
       <c r="W13" s="5">
@@ -1434,8 +1431,8 @@
       <c r="Z13" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA13" s="8" t="s">
-        <v>69</v>
+      <c r="AA13" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1443,7 +1440,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5">
         <v>2.0</v>
@@ -1461,7 +1458,7 @@
         <v>0.0</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="5">
         <v>0.0</v>
@@ -1470,10 +1467,10 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" s="5">
         <v>6.0</v>
@@ -1485,13 +1482,13 @@
         <v>1.0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="5">
         <v>0.0</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S14" s="5">
         <v>0.0</v>
@@ -1499,10 +1496,10 @@
       <c r="T14" s="5">
         <v>3.0</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>0.20902777777777778</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="6">
         <v>0.19930555555555557</v>
       </c>
       <c r="W14" s="5">
@@ -1517,8 +1514,8 @@
       <c r="Z14" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA14" s="8" t="s">
-        <v>71</v>
+      <c r="AA14" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -1526,7 +1523,7 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" s="5">
         <v>4.0</v>
@@ -1544,7 +1541,7 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" s="5">
         <v>0.0</v>
@@ -1553,10 +1550,10 @@
         <v>0.0</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M15" s="5">
         <v>8.0</v>
@@ -1568,13 +1565,13 @@
         <v>0.0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="5">
         <v>1.0</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S15" s="5">
         <v>0.0</v>
@@ -1582,10 +1579,10 @@
       <c r="T15" s="5">
         <v>3.0</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="6">
         <v>0.09444444444444444</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="6">
         <v>0.08125</v>
       </c>
       <c r="W15" s="5">
@@ -1600,8 +1597,8 @@
       <c r="Z15" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA15" s="8" t="s">
-        <v>74</v>
+      <c r="AA15" s="7" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1609,7 +1606,7 @@
         <v>3.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5">
         <v>4.0</v>
@@ -1627,7 +1624,7 @@
         <v>0.0</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I16" s="5">
         <v>0.0</v>
@@ -1636,10 +1633,10 @@
         <v>0.0</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" s="5">
         <v>3.0</v>
@@ -1651,13 +1648,13 @@
         <v>1.0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="5">
         <v>0.0</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S16" s="5">
         <v>1.0</v>
@@ -1665,10 +1662,10 @@
       <c r="T16" s="5">
         <v>4.0</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="6">
         <v>0.1840277777777778</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>0.175</v>
       </c>
       <c r="W16" s="5">
@@ -1683,8 +1680,8 @@
       <c r="Z16" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA16" s="8" t="s">
-        <v>76</v>
+      <c r="AA16" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -1692,7 +1689,7 @@
         <v>9.0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" s="5">
         <v>2.0</v>
@@ -1710,7 +1707,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" s="5">
         <v>0.0</v>
@@ -1719,10 +1716,10 @@
         <v>0.0</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17" s="5">
         <v>6.0</v>
@@ -1734,13 +1731,13 @@
         <v>1.0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="5">
         <v>1.0</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S17" s="5">
         <v>0.0</v>
@@ -1748,10 +1745,10 @@
       <c r="T17" s="5">
         <v>4.0</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>0.13402777777777777</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="6">
         <v>0.08888888888888889</v>
       </c>
       <c r="W17" s="5">
@@ -1766,8 +1763,8 @@
       <c r="Z17" s="5">
         <v>0.0</v>
       </c>
-      <c r="AA17" s="8" t="s">
-        <v>79</v>
+      <c r="AA17" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
